--- a/BackTest/2020-01-23 BackTest MBL.xlsx
+++ b/BackTest/2020-01-23 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>34547.7671</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>75491.7671</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>27335.7671</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27335.7671</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>27335.7671</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8226.767099999997</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8226.767099999997</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>43389.7671</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>18929.7671</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-24185.2329</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-24185.2329</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-24185.2329</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>17746.7671</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6322.232900000003</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6322.232900000003</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16994.2329</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>28050.7671</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>28050.7671</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>28050.7671</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>76712.7671</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>31087.7671</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>52000.7671</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>82518.7671</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>133755.7671</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>164572.7671</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>129771.7671</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>164896.7671</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>197729.7671</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>153845.7671</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>199849.7671</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>163552.7671</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>131222.7671</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>110428.7671</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>110428.7671</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>85707.7671</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>33778.7671</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33778.7671</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>60579.7671</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>29177.7671</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>29177.7671</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>57121.7671</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>57121.7671</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>38644.7671</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>86541.7671</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>126057.7671</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>98562.7671</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>61648.7671</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>61648.7671</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>61648.7671</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>98376.7671</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>50635.7671</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>50635.7671</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>50635.7671</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>50635.7671</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>50635.7671</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>12846.7671</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>12846.7671</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>44541.7671</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>66086.7671</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>99396.7671</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>59600.7671</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>87493.7671</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>64208.7671</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>88150.7671</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>49146.7671</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>83866.7671</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>123769.7671</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>103535.7671</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>140452.7671</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>92842.7671</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>92842.7671</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-79537.7623</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>48750.2377</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>95971.2377</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>57165.2377</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>100031.2377</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>7262.237699999998</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-14400.7623</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-14400.7623</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>76073.2377</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>76073.2377</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>37642.2377</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>91302.2377</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>131547.2377</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>102804.2377</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>73481.2377</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>115456.2377</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>154189.2377</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>176551.2377</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>216045.2377</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>216045.2377</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>186121.2377</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>143997.2377</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>98138.2377</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>98138.2377</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>98138.2377</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>98138.2377</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>145012.2377</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>100402.2377</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>70340.2377</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>124065.2377</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>147997.2377</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>124216.2377</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>124216.2377</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>309552.3037</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>363394.3037</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>327376.3037</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>271954.3037</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>317605.3037</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>250155.3037</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>281616.3037</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>244446.3037</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>213239.3037</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>222142.3037</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>262390.3037</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>222616.3037</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>164547.3037</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>161010.3037</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>189330.3037</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>140008.3037</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>166297.3037</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>128623.3037</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>167714.3037</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>127654.3037</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>174359.3037</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>163204.3037</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>204144.3037</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>182717.3037</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>177227.3037</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>205868.3037</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>200968.3037</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>159735.3037</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>212825.3037</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>155495.3037</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>135404.3037</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>279477.3037</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>258401.3037</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>283020.3037</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>329064.3037</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>364331.3037</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>397307.3037</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>357213.3037</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>324713.3037</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>355656.3037</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>318706.3037</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>283394.3037</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>404181.7383</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>384487.7383</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>356647.7383</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>306385.7383</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>263787.7383</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>300643.7383</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>326121.7383</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>358916.7383</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>334084.7383</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>282851.7383</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>311972.7383</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>348791.7383</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>390053.7383</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3264931.9566</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3218740.9566</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-3094087.9566</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-3062388.9566</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-3085033.9566</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-3111903.9566</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-3151615.9566</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-3182298.9566</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-3216419.9566</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-3244821.9566</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-3283785.9566</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-3283785.9566</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-3319213.9566</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-3312974.9566</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-3397335.9566</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3364808.9566</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-3344155.9566</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-3379579.9566</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-3338802.9566</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3295182.9566</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-3328271.9566</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3276630.9566</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3276630.9566</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-3250409.9566</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-3295595.9566</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3255062.9566</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-3232254.9566</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-3254721.9566</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-3250996.9566</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3276821.9566</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-3276821.9566</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-3316981.9566</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-3291381.9566</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2989073.0146</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2943460.412</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2926521.9293</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2645122.987300001</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-3733920.470400001</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-3926811.626100001</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-3952106.626100001</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3984792.626100001</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-4121575.626100001</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-4118948.626100001</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-4196582.626100001</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-4238537.626100001</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-4425839.136500001</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-4403969.136500001</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-4403969.136500001</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-4463130.136500001</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-4432933.136500001</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-4394054.136500001</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-4364325.136500001</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-4384044.136500001</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-4407041.136500001</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-4359342.136500001</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-4325106.136500001</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-4359505.204800001</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-4432375.204800001</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-4458835.204800001</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-4452722.204800001</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-4416539.204800001</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-4394487.204800001</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-4358106.204800001</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-4338953.204800001</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-4381433.204800001</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-4402627.204800001</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-4432400.204800001</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-4446975.730000001</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-4397308.730000001</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-4465988.730000001</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-4039437.619700002</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-4078954.619700002</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-4086567.619700002</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-5078720.137300001</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-5078720.137300001</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-5023392.137300001</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-5002163.137300001</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-4963397.137300001</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-4915664.137300001</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-4880245.137300001</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-4850543.137300001</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-4867703.468900002</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-5074219.824000002</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-5039378.824000002</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-5089409.824000002</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31669,10 +31669,14 @@
         <v>-8538208.753600003</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J948" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
@@ -31705,8 +31709,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +31745,19 @@
         <v>-8531610.753600003</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J950" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31768,10 +31786,14 @@
         <v>-8499548.753600003</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J951" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
@@ -31801,11 +31823,19 @@
         <v>-8499548.753600003</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J952" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +31864,19 @@
         <v>-8541768.753600003</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J953" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32164,10 +32202,14 @@
         <v>-8888698.340000004</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J963" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
@@ -32200,8 +32242,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32233,8 +32281,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32296,10 +32350,14 @@
         <v>-8884624.340000004</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J967" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
@@ -32329,11 +32387,19 @@
         <v>-8884624.340000004</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J968" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32362,11 +32428,19 @@
         <v>-8843828.340000004</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J969" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32395,10 +32469,14 @@
         <v>-8885804.340000004</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J970" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
@@ -32428,11 +32506,19 @@
         <v>-8885804.340000004</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J971" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +32547,19 @@
         <v>-8856359.340000004</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J972" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33352,10 +33446,14 @@
         <v>-9414265.747700004</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J999" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
@@ -33385,11 +33483,19 @@
         <v>-9465336.747700004</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33418,11 +33524,19 @@
         <v>-9465336.747700004</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,10 +33565,14 @@
         <v>-9421955.747700004</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
@@ -33484,11 +33602,19 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +33643,19 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,10 +33684,14 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
@@ -33583,11 +33721,19 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33616,11 +33762,19 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33649,10 +33803,14 @@
         <v>-9464752.747700004</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
@@ -33682,11 +33840,19 @@
         <v>-9437168.747700004</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33715,11 +33881,19 @@
         <v>-9470454.747700004</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,10 +33922,14 @@
         <v>-9470454.747700004</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
@@ -33781,11 +33959,19 @@
         <v>-9470454.747700004</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33814,11 +34000,19 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33847,10 +34041,14 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
@@ -33880,11 +34078,19 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33913,11 +34119,19 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,10 +34160,14 @@
         <v>-9418706.747700004</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
@@ -33979,11 +34197,19 @@
         <v>-9418706.747700004</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +34238,19 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34045,10 +34279,14 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
@@ -34078,11 +34316,19 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +34357,19 @@
         <v>-9421431.747700004</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,10 +34398,14 @@
         <v>-9467194.747700004</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
@@ -34177,11 +34435,19 @@
         <v>-9431748.747700004</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +34476,19 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,10 +34517,14 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
@@ -34276,11 +34554,19 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,11 +34595,19 @@
         <v>-9415388.747700004</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,10 +34636,14 @@
         <v>-9365923.747700004</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
@@ -34375,11 +34673,19 @@
         <v>-9390749.747700004</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +34714,19 @@
         <v>-9433273.747700004</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,10 +34755,14 @@
         <v>-9433273.747700004</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
@@ -34474,11 +34792,19 @@
         <v>-9433273.747700004</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +34833,19 @@
         <v>-9433273.747700004</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,10 +34874,14 @@
         <v>-9391499.747700004</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
@@ -34573,11 +34911,19 @@
         <v>-9342474.747700004</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34606,11 +34952,19 @@
         <v>-9342474.747700004</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34639,10 +34993,14 @@
         <v>-9379241.747700004</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
@@ -34672,11 +35030,19 @@
         <v>-9379241.747700004</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34705,11 +35071,19 @@
         <v>-9406905.747700004</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,10 +35112,14 @@
         <v>-9406905.747700004</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
@@ -34771,11 +35149,19 @@
         <v>-9364603.747700004</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +35190,19 @@
         <v>-9409656.747700004</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,10 +35231,14 @@
         <v>-9375266.747700004</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
@@ -34870,11 +35268,19 @@
         <v>-9375266.747700004</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,11 +35309,19 @@
         <v>-9375266.747700004</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,10 +35350,14 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
@@ -34969,11 +35387,19 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35002,11 +35428,19 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35035,10 +35469,14 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
@@ -35068,11 +35506,19 @@
         <v>-9366435.747700004</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35101,11 +35547,19 @@
         <v>-9405739.747700004</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35134,10 +35588,14 @@
         <v>-9378078.747700004</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
@@ -35167,11 +35625,19 @@
         <v>-9345396.747700004</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35666,19 @@
         <v>-9312119.747700004</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35233,10 +35707,14 @@
         <v>-9343046.747700004</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>1.774</v>
+      </c>
       <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
@@ -35266,11 +35744,19 @@
         <v>-9343046.747700004</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35299,11 +35785,19 @@
         <v>-9343046.747700004</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35332,10 +35826,14 @@
         <v>-9290897.747700004</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
@@ -35365,11 +35863,19 @@
         <v>-9323619.747700004</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35398,11 +35904,19 @@
         <v>-9283694.747700004</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35431,11 +35945,19 @@
         <v>-9311376.747700004</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +35986,19 @@
         <v>-9274274.747700004</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +36027,19 @@
         <v>-9306263.747700004</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +36068,19 @@
         <v>-9306263.747700004</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35563,11 +36109,19 @@
         <v>-9327940.747700004</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35596,11 +36150,19 @@
         <v>-9327940.747700004</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35629,11 +36191,19 @@
         <v>-9327940.747700004</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35662,11 +36232,19 @@
         <v>-9327940.747700004</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35695,15 +36273,19 @@
         <v>-9305955.747700004</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1070" t="n">
         <v>1.771</v>
       </c>
       <c r="J1070" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="K1070" t="inlineStr"/>
+        <v>1.773</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35732,17 +36314,17 @@
         <v>-9305955.747700004</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1071" t="n">
         <v>1.772</v>
       </c>
       <c r="J1071" t="n">
-        <v>1.771</v>
+        <v>1.773</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1071" t="n">
@@ -35773,15 +36355,17 @@
         <v>-9332206.747700004</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1.772</v>
+      </c>
       <c r="J1072" t="n">
-        <v>1.771</v>
+        <v>1.773</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1072" t="n">
@@ -35812,11 +36396,19 @@
         <v>-9295048.747700004</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35845,11 +36437,19 @@
         <v>-9320138.747700004</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35878,11 +36478,19 @@
         <v>-9270011.747700004</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35911,11 +36519,19 @@
         <v>-9308699.747700004</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35944,11 +36560,19 @@
         <v>-9308699.747700004</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35977,11 +36601,19 @@
         <v>-9281316.747700004</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36010,11 +36642,19 @@
         <v>-9312662.747700004</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36043,11 +36683,19 @@
         <v>-9312662.747700004</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36076,11 +36724,19 @@
         <v>-9366208.200500004</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36109,11 +36765,19 @@
         <v>-9408190.200500004</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36142,15 +36806,17 @@
         <v>-10247094.867</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1083" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1083" t="n">
@@ -36181,12 +36847,14 @@
         <v>-10217556.867</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1084" t="n">
         <v>1.765</v>
       </c>
-      <c r="J1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36220,10 +36888,14 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36257,12 +36929,14 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1086" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36296,12 +36970,14 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1087" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36335,12 +37011,14 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1088" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36374,12 +37052,14 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1089" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36413,12 +37093,14 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1090" t="n">
         <v>1.766</v>
       </c>
-      <c r="J1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36452,12 +37134,14 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1091" t="n">
         <v>1.766</v>
       </c>
-      <c r="J1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36491,12 +37175,14 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1092" t="n">
         <v>1.766</v>
       </c>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36530,12 +37216,14 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1093" t="n">
         <v>1.766</v>
       </c>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36569,12 +37257,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1094" t="n">
         <v>1.766</v>
       </c>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36608,12 +37298,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1095" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36647,12 +37339,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36686,12 +37380,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1097" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36725,12 +37421,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1098" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36764,12 +37462,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1099" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36803,12 +37503,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1100" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36842,12 +37544,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1101" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36881,12 +37585,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36920,12 +37626,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36959,12 +37667,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1104" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36998,12 +37708,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37037,12 +37749,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1106" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37076,12 +37790,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1107" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37115,12 +37831,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37154,12 +37872,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1109" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37193,12 +37913,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1110" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37232,12 +37954,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37271,12 +37995,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37310,12 +38036,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1113" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37349,12 +38077,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1114" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37388,12 +38118,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1115" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37427,12 +38159,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37466,12 +38200,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1117" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37505,12 +38241,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1118" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37544,10 +38282,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37581,10 +38323,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37618,10 +38364,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37655,10 +38405,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37692,10 +38446,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37729,10 +38487,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37766,10 +38528,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37803,10 +38569,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37840,10 +38610,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37877,10 +38651,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37914,10 +38692,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37951,10 +38733,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37988,10 +38774,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38025,10 +38815,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38062,10 +38856,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38099,10 +38897,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38136,10 +38938,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38173,10 +38979,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38210,10 +39020,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38247,10 +39061,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38284,10 +39102,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38321,10 +39143,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38358,10 +39184,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38395,10 +39225,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38432,10 +39266,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38469,10 +39307,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38506,10 +39348,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38543,10 +39389,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38580,10 +39430,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38617,10 +39471,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38654,10 +39512,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38691,10 +39553,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38728,10 +39594,14 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38765,10 +39635,14 @@
         <v>-10051140.1439</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38802,10 +39676,14 @@
         <v>-10018892.1439</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38839,10 +39717,14 @@
         <v>-9985505.143900003</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38879,7 +39761,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38916,7 +39800,9 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38953,7 +39839,9 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38990,7 +39878,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39027,7 +39917,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39064,7 +39956,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39098,10 +39992,14 @@
         <v>-10049205.354</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39138,7 +40036,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39175,7 +40075,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39212,7 +40114,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39246,10 +40150,14 @@
         <v>-10163265.354</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39283,10 +40191,14 @@
         <v>-10183559.354</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39320,10 +40232,14 @@
         <v>-10160015.354</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39357,10 +40273,14 @@
         <v>-10195535.354</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39394,10 +40314,14 @@
         <v>-10171125.354</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39431,10 +40355,14 @@
         <v>-10132444.354</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39471,7 +40399,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39508,7 +40438,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39545,7 +40477,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39582,7 +40516,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39619,7 +40555,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39653,10 +40591,14 @@
         <v>-10138559.354</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39690,10 +40632,14 @@
         <v>-10167743.354</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39727,10 +40673,14 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39764,10 +40714,14 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39801,10 +40755,14 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39838,10 +40796,14 @@
         <v>-10232812.354</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39875,10 +40837,14 @@
         <v>-10271389.354</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39912,10 +40878,14 @@
         <v>-10291911.354</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39949,10 +40919,14 @@
         <v>-10241991.354</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39986,10 +40960,14 @@
         <v>-10291285.354</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40023,10 +41001,14 @@
         <v>-10338072.354</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40060,10 +41042,14 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40097,10 +41083,14 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40134,10 +41124,14 @@
         <v>-10342227.354</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40171,10 +41165,14 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40208,10 +41206,14 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40245,12 +41247,14 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1192" t="n">
         <v>1.771</v>
       </c>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40284,10 +41288,14 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40321,12 +41329,14 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1194" t="n">
         <v>1.773</v>
       </c>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40360,10 +41370,14 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40397,10 +41411,14 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40434,10 +41452,14 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40471,10 +41493,14 @@
         <v>-10275923.354</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40508,10 +41534,14 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40545,10 +41575,14 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40582,10 +41616,14 @@
         <v>-10286432.354</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40619,10 +41657,14 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40656,10 +41698,14 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40693,10 +41739,14 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40730,10 +41780,14 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40767,10 +41821,14 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40804,10 +41862,14 @@
         <v>-10301466.354</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40841,10 +41903,14 @@
         <v>-10331683.354</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40878,10 +41944,14 @@
         <v>-10294406.354</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40915,10 +41985,14 @@
         <v>-10271833.354</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40952,10 +42026,14 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40989,10 +42067,14 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41026,10 +42108,14 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41063,10 +42149,14 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41100,10 +42190,14 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41137,10 +42231,14 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41174,10 +42272,14 @@
         <v>-10211968.354</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41214,7 +42316,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41251,7 +42355,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41288,7 +42394,9 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41325,7 +42433,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41362,7 +42472,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41399,7 +42511,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41433,10 +42547,14 @@
         <v>-10198778.354</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41473,7 +42591,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41510,7 +42630,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41547,7 +42669,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41581,10 +42705,14 @@
         <v>-10200973.354</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41618,10 +42746,14 @@
         <v>-10236406.354</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41655,10 +42787,14 @@
         <v>-10209715.354</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41692,10 +42828,14 @@
         <v>-10186983.354</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41732,7 +42872,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41766,10 +42908,14 @@
         <v>-10261273.354</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41803,10 +42949,14 @@
         <v>-10226673.354</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41843,7 +42993,9 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41880,7 +43032,9 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41914,10 +43068,14 @@
         <v>-10198608.354</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41951,10 +43109,14 @@
         <v>-10237149.354</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41988,10 +43150,14 @@
         <v>-10199519.354</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42025,10 +43191,14 @@
         <v>-10173524.354</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42062,10 +43232,14 @@
         <v>-10226735.354</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42099,10 +43273,14 @@
         <v>-10193678.354</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42136,10 +43314,14 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42173,10 +43355,14 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42210,10 +43396,14 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42247,10 +43437,14 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42284,10 +43478,14 @@
         <v>-10177046.354</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42321,10 +43519,14 @@
         <v>-9804572.578300005</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42361,7 +43563,9 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42398,7 +43602,9 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42435,7 +43641,9 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42472,7 +43680,9 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42509,7 +43719,9 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42546,7 +43758,9 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42583,7 +43797,9 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42620,7 +43836,9 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42657,7 +43875,9 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42694,7 +43914,9 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42731,7 +43953,9 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42768,7 +43992,9 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42805,7 +44031,9 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42842,7 +44070,9 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42879,7 +44109,9 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42916,7 +44148,9 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42953,7 +44187,9 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42990,7 +44226,9 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43027,7 +44265,9 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43064,7 +44304,9 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43101,7 +44343,9 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43138,7 +44382,9 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43175,7 +44421,9 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43212,7 +44460,9 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43249,7 +44499,9 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43286,7 +44538,9 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43323,7 +44577,9 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43360,7 +44616,9 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>1.773</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43372,6 +44630,6 @@
       <c r="M1276" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MBL.xlsx
+++ b/BackTest/2020-01-23 BackTest MBL.xlsx
@@ -9196,7 +9196,7 @@
         <v>347013.3037</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>388193.3037</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>363394.3037</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>327376.3037</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>271954.3037</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>317605.3037</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>288544.3037</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>250155.3037</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>281616.3037</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>244446.3037</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>213239.3037</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>193193.3037</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>262390.3037</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>222616.3037</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>199770.3037</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>164547.3037</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>193702.3037</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>161010.3037</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>189330.3037</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>140008.3037</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>166297.3037</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>128623.3037</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>167714.3037</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>127654.3037</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>174359.3037</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>141238.3037</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>163204.3037</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>204144.3037</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>148301.3037</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>182717.3037</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>158276.3037</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>202251.3037</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>177227.3037</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>205868.3037</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>239982.3037</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>200968.3037</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>159735.3037</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>177066.3037</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>138018.3037</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>161880.3037</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>204165.3037</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>229601.3037</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>181149.3037</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>218956.3037</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>248539.3037</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>212825.3037</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>186310.3037</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>155495.3037</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>135404.3037</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>161218.3037</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>139774.3037</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>168829.3037</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>145655.3037</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>176179.3037</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>211479.3037</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>260771.3037</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>306707.3037</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>279477.3037</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>258401.3037</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>283020.3037</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>329064.3037</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>364331.3037</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>397307.3037</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>357213.3037</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>324713.3037</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>355656.3037</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>318706.3037</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>283394.3037</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>303183.3037</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>348302.3037</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>404181.7383</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>384487.7383</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>356647.7383</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>306385.7383</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>263787.7383</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>300643.7383</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>278176.7383</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>326121.7383</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>358916.7383</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>334084.7383</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>282851.7383</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>311972.7383</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>348791.7383</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>390053.7383</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3264931.9566</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-3312974.9566</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-3354466.9566</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-3312439.9566</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-3239390.9566</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-3272818.9566</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-3312014.9566</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-3344662.9566</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3374293.9566</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2926521.9293</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-2645122.987300001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-3733920.470400001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3704369.470400001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-4049748.626100001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-4090392.626100001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-4348249.204800001</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-3945847.619700002</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-3994389.619700002</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-4032031.619700002</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-4064076.619700002</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-4021049.619700002</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-4834270.947000002</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -33781,10 +33781,14 @@
         <v>-9470454.747700004</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
@@ -33814,11 +33818,19 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33847,11 +33859,19 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33913,10 +33933,14 @@
         <v>-9445013.747700004</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
@@ -33949,8 +33973,14 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +34009,19 @@
         <v>-9418706.747700004</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34045,10 +34083,14 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
@@ -34078,11 +34120,19 @@
         <v>-9440122.747700004</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +34161,19 @@
         <v>-9421431.747700004</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,10 +34202,14 @@
         <v>-9467194.747700004</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
@@ -34177,11 +34239,19 @@
         <v>-9431748.747700004</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34213,8 +34283,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,10 +34319,14 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
@@ -34276,11 +34356,19 @@
         <v>-9465121.747700004</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,11 +34397,19 @@
         <v>-9415388.747700004</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,10 +34438,14 @@
         <v>-9365923.747700004</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
@@ -34378,8 +34478,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34411,8 +34517,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34573,10 +34685,14 @@
         <v>-9342474.747700004</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
@@ -34609,8 +34725,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34642,8 +34764,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34672,10 +34800,14 @@
         <v>-9379241.747700004</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
@@ -34708,8 +34840,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34741,8 +34879,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34969,10 +35113,14 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
@@ -35002,11 +35150,19 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35035,11 +35191,19 @@
         <v>-9403549.747700004</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35068,10 +35232,14 @@
         <v>-9366435.747700004</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
@@ -35104,8 +35272,14 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35134,11 +35308,19 @@
         <v>-9378078.747700004</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35167,10 +35349,14 @@
         <v>-9345396.747700004</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
@@ -35203,8 +35389,14 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35236,8 +35428,14 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35860,10 +36058,14 @@
         <v>-9270011.747700004</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
@@ -35896,8 +36098,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35929,8 +36137,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +36272,17 @@
         <v>-9366208.200500004</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>1.771</v>
+      </c>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36311,17 @@
         <v>-9408190.200500004</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +36350,17 @@
         <v>-10247094.867</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36161,7 +36393,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36190,11 +36426,17 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36223,11 +36465,17 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36256,11 +36504,17 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +36543,17 @@
         <v>-10050471.9878</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36322,11 +36582,17 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36355,11 +36621,17 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36388,11 +36660,17 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36421,11 +36699,17 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36454,11 +36738,17 @@
         <v>-10081313.9878</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36487,11 +36777,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>1.766</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36520,11 +36816,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36553,11 +36855,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36586,11 +36894,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36619,11 +36933,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36652,11 +36972,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36685,11 +37011,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36718,11 +37050,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36751,11 +37089,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36784,11 +37128,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36817,11 +37167,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36850,11 +37206,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36883,11 +37245,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36916,11 +37284,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36949,11 +37323,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -36982,11 +37362,17 @@
         <v>-10054019.9878</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37020,10 +37406,12 @@
       <c r="I1110" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1110" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37057,12 +37445,10 @@
       <c r="I1111" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1111" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1111" t="n">
@@ -37098,12 +37484,10 @@
       <c r="I1112" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1112" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1112" t="n">
@@ -37139,10 +37523,12 @@
       <c r="I1113" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1113" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37176,12 +37562,10 @@
       <c r="I1114" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1114" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1114" t="n">
@@ -37217,12 +37601,10 @@
       <c r="I1115" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1115" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1115" t="n">
@@ -37258,10 +37640,12 @@
       <c r="I1116" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1116" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37295,12 +37679,10 @@
       <c r="I1117" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1117" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1117" t="n">
@@ -37336,12 +37718,10 @@
       <c r="I1118" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1118" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1118" t="n">
@@ -37377,10 +37757,12 @@
       <c r="I1119" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1119" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37414,12 +37796,10 @@
       <c r="I1120" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1120" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1120" t="n">
@@ -37455,12 +37835,10 @@
       <c r="I1121" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1121" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1121" t="n">
@@ -37496,10 +37874,12 @@
       <c r="I1122" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1122" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37533,12 +37913,10 @@
       <c r="I1123" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1123" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1123" t="n">
@@ -37574,12 +37952,10 @@
       <c r="I1124" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1124" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1124" t="n">
@@ -37615,10 +37991,12 @@
       <c r="I1125" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1125" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37652,12 +38030,10 @@
       <c r="I1126" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1126" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1126" t="n">
@@ -37693,12 +38069,10 @@
       <c r="I1127" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1127" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1127" t="n">
@@ -37734,10 +38108,12 @@
       <c r="I1128" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1128" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37771,12 +38147,10 @@
       <c r="I1129" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1129" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1129" t="n">
@@ -37812,12 +38186,10 @@
       <c r="I1130" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1130" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1130" t="n">
@@ -37853,10 +38225,12 @@
       <c r="I1131" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1131" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37890,12 +38264,10 @@
       <c r="I1132" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1132" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1132" t="n">
@@ -37931,12 +38303,10 @@
       <c r="I1133" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1133" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1133" t="n">
@@ -37972,10 +38342,12 @@
       <c r="I1134" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1134" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38009,12 +38381,10 @@
       <c r="I1135" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1135" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1135" t="n">
@@ -38050,12 +38420,10 @@
       <c r="I1136" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1136" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1136" t="n">
@@ -38091,10 +38459,12 @@
       <c r="I1137" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1137" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38128,12 +38498,10 @@
       <c r="I1138" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1138" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1138" t="n">
@@ -38169,12 +38537,10 @@
       <c r="I1139" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1139" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1139" t="n">
@@ -38210,9 +38576,7 @@
       <c r="I1140" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1140" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38251,9 +38615,7 @@
       <c r="I1141" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1141" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38292,9 +38654,7 @@
       <c r="I1142" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1142" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38333,9 +38693,7 @@
       <c r="I1143" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1143" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38374,9 +38732,7 @@
       <c r="I1144" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1144" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38415,9 +38771,7 @@
       <c r="I1145" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1145" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38456,9 +38810,7 @@
       <c r="I1146" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1146" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38497,9 +38849,7 @@
       <c r="I1147" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1147" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38538,9 +38888,7 @@
       <c r="I1148" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1148" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38579,9 +38927,7 @@
       <c r="I1149" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1149" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38620,9 +38966,7 @@
       <c r="I1150" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1150" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38661,9 +39005,7 @@
       <c r="I1151" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1151" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38702,9 +39044,7 @@
       <c r="I1152" t="n">
         <v>1.767</v>
       </c>
-      <c r="J1152" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38743,9 +39083,7 @@
       <c r="I1153" t="n">
         <v>1.768</v>
       </c>
-      <c r="J1153" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38784,9 +39122,7 @@
       <c r="I1154" t="n">
         <v>1.781</v>
       </c>
-      <c r="J1154" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38820,12 +39156,12 @@
         <v>-9952582.143900003</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38859,12 +39195,12 @@
         <v>-9992025.143900003</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38898,12 +39234,12 @@
         <v>-9948989.143900003</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38937,12 +39273,12 @@
         <v>-9979707.143900003</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38979,9 +39315,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39018,9 +39352,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39057,9 +39389,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39096,9 +39426,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39135,9 +39463,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39174,9 +39500,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39213,9 +39537,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39252,9 +39574,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39291,9 +39611,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39330,9 +39648,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39369,9 +39685,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39408,9 +39722,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39447,9 +39759,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39486,9 +39796,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39525,9 +39833,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39564,9 +39870,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39600,12 +39904,12 @@
         <v>-10184978.354</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39639,12 +39943,12 @@
         <v>-10138559.354</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39678,12 +39982,12 @@
         <v>-10167743.354</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39717,12 +40021,12 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39756,12 +40060,12 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39795,12 +40099,12 @@
         <v>-10210547.354</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39834,12 +40138,12 @@
         <v>-10232812.354</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39873,12 +40177,12 @@
         <v>-10271389.354</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39912,12 +40216,12 @@
         <v>-10291911.354</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39951,12 +40255,12 @@
         <v>-10241991.354</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39990,12 +40294,12 @@
         <v>-10291285.354</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40029,12 +40333,12 @@
         <v>-10338072.354</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40068,12 +40372,12 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40107,12 +40411,12 @@
         <v>-10377688.354</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40146,12 +40450,12 @@
         <v>-10342227.354</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40185,12 +40489,12 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40224,12 +40528,12 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40263,12 +40567,12 @@
         <v>-10315084.354</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40302,12 +40606,12 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40341,12 +40645,12 @@
         <v>-10282302.354</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40380,12 +40684,12 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40419,12 +40723,12 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40458,12 +40762,12 @@
         <v>-10239543.354</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40497,12 +40801,12 @@
         <v>-10275923.354</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40536,12 +40840,12 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40575,12 +40879,12 @@
         <v>-10326785.354</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40614,12 +40918,12 @@
         <v>-10286432.354</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40653,12 +40957,12 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40692,12 +40996,12 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40731,12 +41035,12 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40770,12 +41074,12 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40809,12 +41113,12 @@
         <v>-10335214.354</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40848,12 +41152,12 @@
         <v>-10301466.354</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40887,12 +41191,12 @@
         <v>-10331683.354</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40926,12 +41230,12 @@
         <v>-10294406.354</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40965,12 +41269,12 @@
         <v>-10271833.354</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41004,12 +41308,12 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41043,12 +41347,12 @@
         <v>-10302815.354</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41082,12 +41386,12 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41121,12 +41425,12 @@
         <v>-10274962.354</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41160,12 +41464,12 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41199,12 +41503,12 @@
         <v>-10250410.354</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41238,12 +41542,12 @@
         <v>-10211968.354</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41277,12 +41581,12 @@
         <v>-10164195.354</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41316,12 +41620,12 @@
         <v>-10208300.354</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41355,12 +41659,12 @@
         <v>-10208300.354</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41394,12 +41698,12 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41433,12 +41737,12 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41472,12 +41776,12 @@
         <v>-10228658.354</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41511,12 +41815,12 @@
         <v>-10198778.354</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41550,12 +41854,12 @@
         <v>-10161485.354</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41589,12 +41893,12 @@
         <v>-10161485.354</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41628,12 +41932,12 @@
         <v>-10200973.354</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41667,12 +41971,12 @@
         <v>-10200973.354</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41706,12 +42010,12 @@
         <v>-10236406.354</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41745,12 +42049,12 @@
         <v>-10209715.354</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41784,12 +42088,12 @@
         <v>-10186983.354</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41823,12 +42127,12 @@
         <v>-10208663.354</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41862,12 +42166,12 @@
         <v>-10261273.354</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41901,12 +42205,12 @@
         <v>-10226673.354</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41940,12 +42244,12 @@
         <v>-10196413.354</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41979,12 +42283,12 @@
         <v>-10159591.354</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42018,12 +42322,12 @@
         <v>-10198608.354</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42057,12 +42361,12 @@
         <v>-10237149.354</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42096,12 +42400,12 @@
         <v>-10199519.354</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42135,12 +42439,12 @@
         <v>-10173524.354</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42174,12 +42478,12 @@
         <v>-10226735.354</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42213,12 +42517,12 @@
         <v>-10193678.354</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42252,12 +42556,12 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42291,12 +42595,12 @@
         <v>-10236788.354</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42330,12 +42634,12 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42369,12 +42673,12 @@
         <v>-10208453.354</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42408,12 +42712,12 @@
         <v>-10177046.354</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42447,12 +42751,12 @@
         <v>-9804572.578300005</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42486,12 +42790,12 @@
         <v>-9759612.578300005</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>1.767</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42528,9 +42832,7 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42567,9 +42869,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42606,9 +42906,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42645,9 +42943,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42684,9 +42980,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42723,9 +43017,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42762,9 +43054,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42801,9 +43091,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42840,9 +43128,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42879,9 +43165,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42918,9 +43202,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42957,9 +43239,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42996,9 +43276,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43035,9 +43313,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43074,9 +43350,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43113,9 +43387,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43152,9 +43424,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43191,9 +43461,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43230,9 +43498,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43269,9 +43535,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43308,9 +43572,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43347,9 +43609,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43386,9 +43646,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43425,9 +43683,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43464,9 +43720,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43503,9 +43757,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43542,9 +43794,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>1.767</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
